--- a/app/upload_file/string_послепарсинга_(1).xlsx
+++ b/app/upload_file/string_послепарсинга_(1).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,156 +463,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>362312</v>
+          <t>Mahle---Knecht</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>02943N0</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ORQQ</t>
+          <t>MZYJ</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>179</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ГАЗ</t>
+          <t>Peugeot---Citroen</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6270000290</v>
+        <v>82026</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>YWDE</t>
+          <t>JFWU</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>00006426YN</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>YFVS</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>00008120T7</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SVQT</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>00004254A2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SXWK</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Peugeot---Citroen</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>82026</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>JFWU</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
         <v>309</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mahle---Knecht</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>02943N0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MZYJ</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>52</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1510</v>
       </c>
     </row>
   </sheetData>
